--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3008.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3008.xlsx
@@ -354,7 +354,7 @@
         <v>2.411705659631546</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.309606613153311</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3008.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3008.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.175243075671731</v>
+        <v>1.327636122703552</v>
       </c>
       <c r="B1">
-        <v>2.411705659631546</v>
+        <v>1.706321120262146</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>2.340502738952637</v>
       </c>
       <c r="D1">
-        <v>2.309606613153311</v>
+        <v>6.540104866027832</v>
       </c>
       <c r="E1">
-        <v>1.201234907458925</v>
+        <v>2.848648309707642</v>
       </c>
     </row>
   </sheetData>
